--- a/excel/Item.xlsx
+++ b/excel/Item.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\item-generator\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\ItemGenerator\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EF0B09-E502-4205-B1CB-563C5C0BF010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83870B0E-D3FD-4303-829F-AFF87C9FBC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34310" yWindow="-4720" windowWidth="26040" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="25995" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="3" r:id="rId1"/>
     <sheet name="Item" sheetId="7" r:id="rId2"/>
     <sheet name="ItemDrop" sheetId="22" r:id="rId3"/>
     <sheet name="ItemDropGrade" sheetId="23" r:id="rId4"/>
-    <sheet name="ItemOption" sheetId="21" r:id="rId5"/>
+    <sheet name="!ItemOption" sheetId="21" r:id="rId5"/>
     <sheet name="ItemPotion" sheetId="13" r:id="rId6"/>
     <sheet name="ItemWeapon" sheetId="10" r:id="rId7"/>
     <sheet name="ItemEquip" sheetId="12" r:id="rId8"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="254">
   <si>
     <t>Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1042,6 +1042,10 @@
   </si>
   <si>
     <t>고장방어력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1487,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I15:K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3737,80 +3741,73 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C54022-A5B7-4BBB-B8FC-0BB8C06D78B5}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="C1" s="25" t="s">
+        <v>249</v>
+      </c>
       <c r="D1" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="25" t="s">
         <v>250</v>
       </c>
+      <c r="E1" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="F1" s="10" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="H1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="10" t="s">
         <v>134</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>30</v>
+      <c r="E2" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>220</v>
       </c>
@@ -3824,3055 +3821,2619 @@
         <v>220</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1</v>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="29">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="29">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="29">
+        <v>4</v>
+      </c>
+      <c r="D7" s="29">
+        <v>25</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29">
+        <v>30</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="29">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29">
+        <v>35</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="29">
-        <v>1</v>
-      </c>
-      <c r="E4" s="29">
+      <c r="B10" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="29">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29">
+        <v>5</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="29">
+        <v>2</v>
+      </c>
+      <c r="D11" s="29">
+        <v>6</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4</v>
+      </c>
+      <c r="D13" s="29">
+        <v>8</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="29">
+        <v>5</v>
+      </c>
+      <c r="D14" s="29">
+        <v>9</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="29">
+        <v>6</v>
+      </c>
+      <c r="D15" s="29">
         <v>10</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="E15" s="27"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1</v>
+      </c>
+      <c r="D16" s="29">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="29">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D17" s="29">
+        <v>15</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29">
+        <v>20</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="29">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29">
+        <v>25</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="29">
+        <v>5</v>
+      </c>
+      <c r="D20" s="29">
+        <v>30</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="29">
+        <v>6</v>
+      </c>
+      <c r="D21" s="29">
+        <v>35</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="29">
+        <v>1</v>
+      </c>
+      <c r="D22" s="29">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="B23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="29">
         <v>2</v>
       </c>
-      <c r="E5" s="29">
-        <v>15</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="D23" s="29">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="29">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="29">
-        <v>3</v>
-      </c>
-      <c r="E6" s="29">
-        <v>20</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="D24" s="29">
+        <v>7</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="29">
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="29">
-        <v>4</v>
-      </c>
-      <c r="E7" s="29">
-        <v>25</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="29">
-        <v>5</v>
-      </c>
-      <c r="E8" s="29">
-        <v>30</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="29">
-        <v>6</v>
-      </c>
-      <c r="E9" s="29">
-        <v>35</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="29">
-        <v>1</v>
-      </c>
-      <c r="E10" s="29">
-        <v>5</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="D25" s="29">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="29">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29">
-        <v>6</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>9</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="29">
-        <v>3</v>
-      </c>
-      <c r="E12" s="29">
-        <v>7</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>10</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="29">
-        <v>4</v>
-      </c>
-      <c r="E13" s="29">
-        <v>8</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>11</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="29">
-        <v>5</v>
-      </c>
-      <c r="E14" s="29">
-        <v>9</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>12</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="29">
-        <v>6</v>
-      </c>
-      <c r="E15" s="29">
-        <v>10</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="29">
-        <v>1</v>
-      </c>
-      <c r="E16" s="29">
-        <v>10</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="29">
-        <v>2</v>
-      </c>
-      <c r="E17" s="29">
-        <v>15</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>15</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="29">
-        <v>3</v>
-      </c>
-      <c r="E18" s="29">
-        <v>20</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>16</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="29">
-        <v>4</v>
-      </c>
-      <c r="E19" s="29">
-        <v>25</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>17</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="29">
-        <v>5</v>
-      </c>
-      <c r="E20" s="29">
-        <v>30</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>18</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="29">
-        <v>6</v>
-      </c>
-      <c r="E21" s="29">
-        <v>35</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>19</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="29">
-        <v>1</v>
-      </c>
-      <c r="E22" s="29">
-        <v>5</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>20</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="29">
-        <v>2</v>
-      </c>
-      <c r="E23" s="29">
-        <v>6</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>21</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="29">
-        <v>3</v>
-      </c>
-      <c r="E24" s="29">
-        <v>7</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>22</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="29">
-        <v>4</v>
-      </c>
-      <c r="E25" s="29">
-        <v>8</v>
-      </c>
+      <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>23</v>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C26" s="11" t="s">
         <v>146</v>
       </c>
+      <c r="C26" s="29">
+        <v>5</v>
+      </c>
       <c r="D26" s="29">
-        <v>5</v>
-      </c>
-      <c r="E26" s="29">
         <v>9</v>
       </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>24</v>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="11" t="s">
         <v>146</v>
       </c>
+      <c r="C27" s="29">
+        <v>6</v>
+      </c>
       <c r="D27" s="29">
-        <v>6</v>
-      </c>
-      <c r="E27" s="29">
         <v>10</v>
       </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>25</v>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C28" s="29">
+        <v>1</v>
+      </c>
       <c r="D28" s="29">
-        <v>1</v>
-      </c>
-      <c r="E28" s="29">
         <v>10</v>
       </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>26</v>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C29" s="29">
+        <v>2</v>
+      </c>
       <c r="D29" s="29">
-        <v>2</v>
-      </c>
-      <c r="E29" s="29">
         <v>15</v>
       </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>27</v>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C30" s="29">
+        <v>3</v>
+      </c>
       <c r="D30" s="29">
-        <v>3</v>
-      </c>
-      <c r="E30" s="29">
         <v>20</v>
       </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>28</v>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C31" s="29">
+        <v>4</v>
+      </c>
       <c r="D31" s="29">
-        <v>4</v>
-      </c>
-      <c r="E31" s="29">
         <v>25</v>
       </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>29</v>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C32" s="29">
+        <v>5</v>
+      </c>
       <c r="D32" s="29">
-        <v>5</v>
-      </c>
-      <c r="E32" s="29">
         <v>30</v>
       </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>30</v>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="11" t="s">
         <v>149</v>
       </c>
+      <c r="C33" s="29">
+        <v>6</v>
+      </c>
       <c r="D33" s="29">
-        <v>6</v>
-      </c>
-      <c r="E33" s="29">
         <v>35</v>
       </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>31</v>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>158</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="11" t="s">
         <v>145</v>
       </c>
+      <c r="C34" s="29">
+        <v>1</v>
+      </c>
       <c r="D34" s="29">
-        <v>1</v>
-      </c>
-      <c r="E34" s="29">
         <v>5</v>
       </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>32</v>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="11" t="s">
         <v>145</v>
       </c>
+      <c r="C35" s="29">
+        <v>2</v>
+      </c>
       <c r="D35" s="29">
-        <v>2</v>
-      </c>
-      <c r="E35" s="29">
         <v>6</v>
       </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>33</v>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="11" t="s">
         <v>145</v>
       </c>
+      <c r="C36" s="29">
+        <v>3</v>
+      </c>
       <c r="D36" s="29">
-        <v>3</v>
-      </c>
-      <c r="E36" s="29">
         <v>7</v>
       </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>34</v>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="29">
+        <v>4</v>
+      </c>
+      <c r="D37" s="29">
+        <v>8</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="29">
+        <v>5</v>
+      </c>
+      <c r="D38" s="29">
+        <v>9</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="29">
+        <v>6</v>
+      </c>
+      <c r="D39" s="29">
+        <v>10</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="29">
+        <v>1</v>
+      </c>
+      <c r="D40" s="29">
+        <v>10</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="29">
+        <v>2</v>
+      </c>
+      <c r="D41" s="29">
+        <v>15</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="29">
+        <v>3</v>
+      </c>
+      <c r="D42" s="29">
+        <v>20</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="29">
+      <c r="B43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="29">
         <v>4</v>
       </c>
-      <c r="E37" s="29">
+      <c r="D43" s="29">
+        <v>25</v>
+      </c>
+      <c r="E43" s="27"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="29">
+        <v>5</v>
+      </c>
+      <c r="D44" s="29">
+        <v>30</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="29">
+        <v>6</v>
+      </c>
+      <c r="D45" s="29">
+        <v>35</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="29">
+        <v>1</v>
+      </c>
+      <c r="D46" s="29">
+        <v>5</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="29">
+        <v>2</v>
+      </c>
+      <c r="D47" s="29">
+        <v>6</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="29">
+        <v>3</v>
+      </c>
+      <c r="D48" s="29">
+        <v>7</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="29">
+        <v>4</v>
+      </c>
+      <c r="D49" s="29">
         <v>8</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>35</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="E49" s="27"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="29">
+      <c r="B50" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="29">
         <v>5</v>
       </c>
-      <c r="E38" s="29">
+      <c r="D50" s="29">
         <v>9</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>36</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="E50" s="27"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="29">
+      <c r="B51" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="29">
         <v>6</v>
       </c>
-      <c r="E39" s="29">
+      <c r="D51" s="29">
         <v>10</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
-        <v>37</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="E51" s="27"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="29">
-        <v>1</v>
-      </c>
-      <c r="E40" s="29">
-        <v>10</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="15"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>38</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="29">
-        <v>2</v>
-      </c>
-      <c r="E41" s="29">
-        <v>15</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>39</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="29">
-        <v>3</v>
-      </c>
-      <c r="E42" s="29">
-        <v>20</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>40</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="29">
-        <v>4</v>
-      </c>
-      <c r="E43" s="29">
-        <v>25</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>41</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="29">
+      <c r="B52" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" s="29">
         <v>5</v>
-      </c>
-      <c r="E44" s="29">
-        <v>30</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="15"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>42</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="29">
-        <v>6</v>
-      </c>
-      <c r="E45" s="29">
-        <v>35</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>43</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D46" s="29">
-        <v>1</v>
-      </c>
-      <c r="E46" s="29">
-        <v>5</v>
-      </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="29">
-        <v>2</v>
-      </c>
-      <c r="E47" s="29">
-        <v>6</v>
-      </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>45</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="29">
-        <v>3</v>
-      </c>
-      <c r="E48" s="29">
-        <v>7</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="15"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>46</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="29">
-        <v>4</v>
-      </c>
-      <c r="E49" s="29">
-        <v>8</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
-        <v>47</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" s="29">
-        <v>5</v>
-      </c>
-      <c r="E50" s="29">
-        <v>9</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>48</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="29">
-        <v>6</v>
-      </c>
-      <c r="E51" s="29">
-        <v>10</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>49</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>246</v>
       </c>
       <c r="D52" s="29">
         <v>5</v>
       </c>
-      <c r="E52" s="29">
-        <v>5</v>
-      </c>
-      <c r="F52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="15"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
-        <v>50</v>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
+        <v>188</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="11" t="s">
         <v>246</v>
+      </c>
+      <c r="C53" s="29">
+        <v>10</v>
       </c>
       <c r="D53" s="29">
         <v>10</v>
       </c>
-      <c r="E53" s="29">
-        <v>10</v>
-      </c>
-      <c r="F53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>51</v>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C54" s="11" t="s">
         <v>246</v>
+      </c>
+      <c r="C54" s="29">
+        <v>13</v>
       </c>
       <c r="D54" s="29">
         <v>13</v>
       </c>
-      <c r="E54" s="29">
-        <v>13</v>
-      </c>
-      <c r="F54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>52</v>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="11" t="s">
         <v>246</v>
+      </c>
+      <c r="C55" s="29">
+        <v>16</v>
       </c>
       <c r="D55" s="29">
         <v>16</v>
       </c>
-      <c r="E55" s="29">
-        <v>16</v>
-      </c>
-      <c r="F55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>53</v>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="11" t="s">
         <v>246</v>
+      </c>
+      <c r="C56" s="29">
+        <v>20</v>
       </c>
       <c r="D56" s="29">
         <v>20</v>
       </c>
-      <c r="E56" s="29">
-        <v>20</v>
-      </c>
-      <c r="F56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>54</v>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C57" s="11" t="s">
         <v>246</v>
+      </c>
+      <c r="C57" s="29">
+        <v>25</v>
       </c>
       <c r="D57" s="29">
         <v>25</v>
       </c>
-      <c r="E57" s="29">
-        <v>25</v>
-      </c>
-      <c r="F57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>55</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C58" s="29">
+        <v>-5</v>
       </c>
       <c r="D58" s="29">
         <v>-5</v>
       </c>
-      <c r="E58" s="29">
-        <v>-5</v>
-      </c>
-      <c r="F58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>56</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C59" s="29">
+        <v>-10</v>
       </c>
       <c r="D59" s="29">
         <v>-10</v>
       </c>
-      <c r="E59" s="29">
-        <v>-10</v>
-      </c>
-      <c r="F59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
-        <v>57</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C60" s="29">
+        <v>-13</v>
       </c>
       <c r="D60" s="29">
         <v>-13</v>
       </c>
-      <c r="E60" s="29">
-        <v>-13</v>
-      </c>
-      <c r="F60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
-        <v>58</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C61" s="29">
+        <v>-16</v>
       </c>
       <c r="D61" s="29">
         <v>-16</v>
       </c>
-      <c r="E61" s="29">
-        <v>-16</v>
-      </c>
-      <c r="F61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
-        <v>59</v>
-      </c>
-      <c r="B62" s="11" t="s">
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="B62" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C62" s="29">
+        <v>-20</v>
       </c>
       <c r="D62" s="29">
         <v>-20</v>
       </c>
-      <c r="E62" s="29">
-        <v>-20</v>
-      </c>
-      <c r="F62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
-        <v>60</v>
-      </c>
-      <c r="B63" s="11" t="s">
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="12" t="s">
         <v>165</v>
+      </c>
+      <c r="C63" s="29">
+        <v>-25</v>
       </c>
       <c r="D63" s="29">
         <v>-25</v>
       </c>
-      <c r="E63" s="29">
-        <v>-25</v>
-      </c>
-      <c r="F63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
-        <v>61</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C64" s="29">
+        <v>-5</v>
       </c>
       <c r="D64" s="29">
         <v>-5</v>
       </c>
-      <c r="E64" s="29">
-        <v>-5</v>
-      </c>
-      <c r="F64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
-        <v>62</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C65" s="29">
+        <v>-10</v>
       </c>
       <c r="D65" s="29">
         <v>-10</v>
       </c>
-      <c r="E65" s="29">
-        <v>-10</v>
-      </c>
-      <c r="F65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="15"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
-        <v>63</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C66" s="29">
+        <v>-13</v>
       </c>
       <c r="D66" s="29">
         <v>-13</v>
       </c>
-      <c r="E66" s="29">
-        <v>-13</v>
-      </c>
-      <c r="F66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
-        <v>64</v>
-      </c>
-      <c r="B67" s="11" t="s">
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C67" s="29">
+        <v>-16</v>
       </c>
       <c r="D67" s="29">
         <v>-16</v>
       </c>
-      <c r="E67" s="29">
-        <v>-16</v>
-      </c>
-      <c r="F67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>65</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C68" s="29">
+        <v>-20</v>
       </c>
       <c r="D68" s="29">
         <v>-20</v>
       </c>
-      <c r="E68" s="29">
-        <v>-20</v>
-      </c>
-      <c r="F68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="15"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>66</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="12" t="s">
         <v>166</v>
+      </c>
+      <c r="C69" s="29">
+        <v>-25</v>
       </c>
       <c r="D69" s="29">
         <v>-25</v>
       </c>
-      <c r="E69" s="29">
-        <v>-25</v>
-      </c>
-      <c r="F69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="15"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>67</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="30">
-        <v>1</v>
-      </c>
-      <c r="E70" s="29">
+      <c r="C70" s="30">
+        <v>1</v>
+      </c>
+      <c r="D70" s="29">
         <v>15</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="15"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>68</v>
-      </c>
-      <c r="B71" s="11" t="s">
+      <c r="E70" s="27"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D71" s="30">
+      <c r="C71" s="30">
         <v>3</v>
       </c>
-      <c r="E71" s="29">
+      <c r="D71" s="29">
         <v>15</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="15"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>69</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="E71" s="27"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="30">
+      <c r="C72" s="30">
         <v>5</v>
       </c>
-      <c r="E72" s="29">
+      <c r="D72" s="29">
         <v>15</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="15"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>70</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="E72" s="27"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="30">
+      <c r="C73" s="30">
         <v>5</v>
       </c>
-      <c r="E73" s="29">
+      <c r="D73" s="29">
         <v>20</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="15"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="11">
-        <v>71</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="E73" s="27"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D74" s="30">
+      <c r="C74" s="30">
         <v>10</v>
       </c>
-      <c r="E74" s="29">
+      <c r="D74" s="29">
         <v>20</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="15"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="11">
-        <v>72</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="E74" s="27"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D75" s="30">
+      <c r="C75" s="30">
         <v>15</v>
       </c>
-      <c r="E75" s="29">
+      <c r="D75" s="29">
         <v>30</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="15"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="11">
-        <v>73</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="E75" s="27"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D76" s="30">
-        <v>1</v>
-      </c>
-      <c r="E76" s="29">
+      <c r="C76" s="30">
+        <v>1</v>
+      </c>
+      <c r="D76" s="29">
         <v>15</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="15"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="11">
-        <v>74</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="30">
+      <c r="C77" s="30">
         <v>3</v>
       </c>
-      <c r="E77" s="29">
+      <c r="D77" s="29">
         <v>15</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="15"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="11">
-        <v>75</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="E77" s="27"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D78" s="30">
+      <c r="C78" s="30">
         <v>5</v>
       </c>
-      <c r="E78" s="29">
+      <c r="D78" s="29">
         <v>15</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="15"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="11">
-        <v>76</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="E78" s="27"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="30">
+      <c r="C79" s="30">
         <v>5</v>
       </c>
-      <c r="E79" s="29">
+      <c r="D79" s="29">
         <v>20</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="15"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>77</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="E79" s="27"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="B80" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D80" s="30">
+      <c r="C80" s="30">
         <v>10</v>
       </c>
-      <c r="E80" s="29">
+      <c r="D80" s="29">
         <v>20</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="15"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="11">
-        <v>78</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="E80" s="27"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D81" s="30">
+      <c r="C81" s="30">
         <v>15</v>
       </c>
-      <c r="E81" s="29">
+      <c r="D81" s="29">
         <v>30</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="15"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="11">
-        <v>79</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="E81" s="27"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D82" s="30">
-        <v>1</v>
-      </c>
-      <c r="E82" s="29">
+      <c r="C82" s="30">
+        <v>1</v>
+      </c>
+      <c r="D82" s="29">
         <v>15</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="15"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="11">
-        <v>80</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="E82" s="27"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D83" s="30">
+      <c r="C83" s="30">
         <v>3</v>
       </c>
-      <c r="E83" s="29">
+      <c r="D83" s="29">
         <v>15</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="15"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="11">
-        <v>81</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="B84" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D84" s="30">
+      <c r="C84" s="30">
         <v>5</v>
       </c>
-      <c r="E84" s="29">
+      <c r="D84" s="29">
         <v>15</v>
       </c>
-      <c r="F84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="15"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="11">
-        <v>82</v>
-      </c>
-      <c r="B85" s="11" t="s">
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D85" s="30">
+      <c r="C85" s="30">
         <v>5</v>
       </c>
-      <c r="E85" s="29">
+      <c r="D85" s="29">
         <v>20</v>
       </c>
-      <c r="F85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="15"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="11">
-        <v>83</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="30">
+      <c r="C86" s="30">
         <v>10</v>
       </c>
-      <c r="E86" s="29">
+      <c r="D86" s="29">
         <v>20</v>
       </c>
-      <c r="F86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="15"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="11">
-        <v>84</v>
-      </c>
-      <c r="B87" s="11" t="s">
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D87" s="30">
+      <c r="C87" s="30">
         <v>15</v>
       </c>
-      <c r="E87" s="29">
+      <c r="D87" s="29">
         <v>30</v>
       </c>
-      <c r="F87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="15"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="11">
-        <v>85</v>
-      </c>
-      <c r="B88" s="11" t="s">
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="B88" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="30">
-        <v>1</v>
-      </c>
-      <c r="E88" s="29">
+      <c r="C88" s="30">
+        <v>1</v>
+      </c>
+      <c r="D88" s="29">
         <v>15</v>
       </c>
-      <c r="F88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="15"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="11">
-        <v>86</v>
-      </c>
-      <c r="B89" s="11" t="s">
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="30">
+      <c r="C89" s="30">
         <v>3</v>
       </c>
-      <c r="E89" s="29">
+      <c r="D89" s="29">
         <v>15</v>
       </c>
-      <c r="F89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="15"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="11">
-        <v>87</v>
-      </c>
-      <c r="B90" s="11" t="s">
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="30">
+      <c r="C90" s="30">
         <v>5</v>
       </c>
-      <c r="E90" s="29">
+      <c r="D90" s="29">
         <v>15</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="11">
-        <v>88</v>
-      </c>
-      <c r="B91" s="11" t="s">
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="B91" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="30">
+      <c r="C91" s="30">
         <v>5</v>
       </c>
-      <c r="E91" s="29">
+      <c r="D91" s="29">
         <v>20</v>
       </c>
-      <c r="F91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="11">
-        <v>89</v>
-      </c>
-      <c r="B92" s="11" t="s">
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C92" s="12" t="s">
+      <c r="B92" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D92" s="30">
+      <c r="C92" s="30">
         <v>10</v>
       </c>
-      <c r="E92" s="29">
+      <c r="D92" s="29">
         <v>20</v>
       </c>
-      <c r="F92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="15"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="11">
-        <v>90</v>
-      </c>
-      <c r="B93" s="11" t="s">
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="30">
+      <c r="C93" s="30">
         <v>15</v>
       </c>
-      <c r="E93" s="29">
+      <c r="D93" s="29">
         <v>30</v>
       </c>
-      <c r="F93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="15"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="11">
-        <v>91</v>
-      </c>
-      <c r="B94" s="11" t="s">
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D94" s="30">
-        <v>1</v>
-      </c>
-      <c r="E94" s="29">
+      <c r="C94" s="30">
+        <v>1</v>
+      </c>
+      <c r="D94" s="29">
         <v>15</v>
       </c>
-      <c r="F94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="15"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="11">
-        <v>92</v>
-      </c>
-      <c r="B95" s="11" t="s">
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D95" s="30">
+      <c r="C95" s="30">
         <v>3</v>
       </c>
-      <c r="E95" s="29">
+      <c r="D95" s="29">
         <v>15</v>
       </c>
-      <c r="F95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="11">
-        <v>93</v>
-      </c>
-      <c r="B96" s="11" t="s">
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D96" s="30">
+      <c r="C96" s="30">
         <v>5</v>
       </c>
-      <c r="E96" s="29">
+      <c r="D96" s="29">
         <v>15</v>
       </c>
-      <c r="F96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="15"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="11">
-        <v>94</v>
-      </c>
-      <c r="B97" s="11" t="s">
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D97" s="30">
+      <c r="C97" s="30">
         <v>5</v>
       </c>
-      <c r="E97" s="29">
+      <c r="D97" s="29">
         <v>20</v>
       </c>
-      <c r="F97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="15"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="11">
-        <v>95</v>
-      </c>
-      <c r="B98" s="11" t="s">
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="B98" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D98" s="30">
+      <c r="C98" s="30">
         <v>10</v>
       </c>
-      <c r="E98" s="29">
+      <c r="D98" s="29">
         <v>20</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="15"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="11">
-        <v>96</v>
-      </c>
-      <c r="B99" s="11" t="s">
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D99" s="30">
+      <c r="C99" s="30">
         <v>15</v>
       </c>
-      <c r="E99" s="29">
+      <c r="D99" s="29">
         <v>30</v>
       </c>
-      <c r="F99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="15"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="11">
-        <v>97</v>
-      </c>
-      <c r="B100" s="11" t="s">
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D100" s="30">
-        <v>1</v>
-      </c>
-      <c r="E100" s="29">
+      <c r="C100" s="30">
+        <v>1</v>
+      </c>
+      <c r="D100" s="29">
         <v>15</v>
       </c>
-      <c r="F100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="11">
-        <v>98</v>
-      </c>
-      <c r="B101" s="11" t="s">
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D101" s="30">
+      <c r="C101" s="30">
         <v>3</v>
       </c>
-      <c r="E101" s="29">
+      <c r="D101" s="29">
         <v>15</v>
       </c>
-      <c r="F101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="11">
-        <v>99</v>
-      </c>
-      <c r="B102" s="11" t="s">
+      <c r="H101" s="15"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="B102" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D102" s="30">
+      <c r="C102" s="30">
         <v>5</v>
       </c>
-      <c r="E102" s="29">
+      <c r="D102" s="29">
         <v>15</v>
       </c>
-      <c r="F102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="15"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="11">
-        <v>100</v>
-      </c>
-      <c r="B103" s="11" t="s">
+      <c r="H102" s="15"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="B103" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D103" s="30">
+      <c r="C103" s="30">
         <v>5</v>
       </c>
-      <c r="E103" s="29">
+      <c r="D103" s="29">
         <v>20</v>
       </c>
-      <c r="F103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="15"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="11">
-        <v>101</v>
-      </c>
-      <c r="B104" s="11" t="s">
+      <c r="H103" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="B104" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D104" s="30">
+      <c r="C104" s="30">
         <v>10</v>
       </c>
-      <c r="E104" s="29">
+      <c r="D104" s="29">
         <v>20</v>
       </c>
-      <c r="F104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="15"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="11">
-        <v>102</v>
-      </c>
-      <c r="B105" s="11" t="s">
+      <c r="H104" s="15"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="B105" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D105" s="30">
+      <c r="C105" s="30">
         <v>15</v>
       </c>
-      <c r="E105" s="29">
+      <c r="D105" s="29">
         <v>30</v>
       </c>
-      <c r="F105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="15"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="11">
-        <v>103</v>
-      </c>
-      <c r="B106" s="11" t="s">
+      <c r="H105" s="15"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="B106" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C106" s="29">
+        <v>5</v>
       </c>
       <c r="D106" s="29">
         <v>5</v>
       </c>
-      <c r="E106" s="29">
-        <v>5</v>
-      </c>
-      <c r="F106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="15"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="11">
-        <v>104</v>
-      </c>
-      <c r="B107" s="11" t="s">
+      <c r="H106" s="15"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="B107" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C107" s="29">
+        <v>10</v>
       </c>
       <c r="D107" s="29">
         <v>10</v>
       </c>
-      <c r="E107" s="29">
-        <v>10</v>
-      </c>
-      <c r="F107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="15"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="11">
-        <v>105</v>
-      </c>
-      <c r="B108" s="11" t="s">
+      <c r="H107" s="15"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="B108" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C108" s="29">
+        <v>13</v>
       </c>
       <c r="D108" s="29">
         <v>13</v>
       </c>
-      <c r="E108" s="29">
-        <v>13</v>
-      </c>
-      <c r="F108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="15"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="11">
-        <v>106</v>
-      </c>
-      <c r="B109" s="11" t="s">
+      <c r="H108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C109" s="29">
+        <v>16</v>
       </c>
       <c r="D109" s="29">
         <v>16</v>
       </c>
-      <c r="E109" s="29">
-        <v>16</v>
-      </c>
-      <c r="F109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="15"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="11">
-        <v>107</v>
-      </c>
-      <c r="B110" s="11" t="s">
+      <c r="H109" s="15"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="B110" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C110" s="29">
+        <v>20</v>
       </c>
       <c r="D110" s="29">
         <v>20</v>
       </c>
-      <c r="E110" s="29">
-        <v>20</v>
-      </c>
-      <c r="F110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="15"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="11">
-        <v>108</v>
-      </c>
-      <c r="B111" s="11" t="s">
+      <c r="H110" s="15"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="B111" s="12" t="s">
         <v>224</v>
+      </c>
+      <c r="C111" s="29">
+        <v>25</v>
       </c>
       <c r="D111" s="29">
         <v>25</v>
       </c>
-      <c r="E111" s="29">
+      <c r="E111" s="27"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="15"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C112" s="30">
+        <v>1</v>
+      </c>
+      <c r="D112" s="29">
+        <v>5</v>
+      </c>
+      <c r="E112" s="27"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="15"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="30">
+        <v>2</v>
+      </c>
+      <c r="D113" s="30">
+        <v>10</v>
+      </c>
+      <c r="E113" s="27"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="15"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="30">
+        <v>3</v>
+      </c>
+      <c r="D114" s="29">
+        <v>15</v>
+      </c>
+      <c r="E114" s="27"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="15"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="30">
+        <v>4</v>
+      </c>
+      <c r="D115" s="29">
+        <v>20</v>
+      </c>
+      <c r="E115" s="27"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="15"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C116" s="30">
+        <v>5</v>
+      </c>
+      <c r="D116" s="29">
         <v>25</v>
       </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="15"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="11">
-        <v>109</v>
-      </c>
-      <c r="B112" s="11" t="s">
+      <c r="E116" s="27"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="15"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="30">
+        <v>10</v>
+      </c>
+      <c r="D117" s="29">
+        <v>30</v>
+      </c>
+      <c r="E117" s="27"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="15"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D112" s="30">
-        <v>1</v>
-      </c>
-      <c r="E112" s="29">
+      <c r="B118" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="30">
+        <v>1</v>
+      </c>
+      <c r="D118" s="29">
         <v>5</v>
       </c>
-      <c r="F112" s="27"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="15"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="11">
-        <v>110</v>
-      </c>
-      <c r="B113" s="11" t="s">
+      <c r="E118" s="27"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="15"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="30">
+      <c r="B119" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="30">
         <v>2</v>
       </c>
-      <c r="E113" s="30">
+      <c r="D119" s="30">
         <v>10</v>
       </c>
-      <c r="F113" s="27"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="15"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="11">
-        <v>111</v>
-      </c>
-      <c r="B114" s="11" t="s">
+      <c r="E119" s="27"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D114" s="30">
+      <c r="B120" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="30">
         <v>3</v>
       </c>
-      <c r="E114" s="29">
+      <c r="D120" s="29">
         <v>15</v>
       </c>
-      <c r="F114" s="27"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="15"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="11">
-        <v>112</v>
-      </c>
-      <c r="B115" s="11" t="s">
+      <c r="E120" s="27"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D115" s="30">
+      <c r="B121" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="30">
         <v>4</v>
       </c>
-      <c r="E115" s="29">
+      <c r="D121" s="29">
         <v>20</v>
       </c>
-      <c r="F115" s="27"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="15"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="11">
-        <v>113</v>
-      </c>
-      <c r="B116" s="11" t="s">
+      <c r="E121" s="27"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="15"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D116" s="30">
+      <c r="B122" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="30">
         <v>5</v>
       </c>
-      <c r="E116" s="29">
+      <c r="D122" s="29">
         <v>25</v>
       </c>
-      <c r="F116" s="27"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="15"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="11">
-        <v>114</v>
-      </c>
-      <c r="B117" s="11" t="s">
+      <c r="E122" s="27"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="15"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D117" s="30">
+      <c r="B123" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="30">
         <v>10</v>
       </c>
-      <c r="E117" s="29">
+      <c r="D123" s="29">
         <v>30</v>
       </c>
-      <c r="F117" s="27"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="15"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="11">
-        <v>115</v>
-      </c>
-      <c r="B118" s="11" t="s">
+      <c r="E123" s="27"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="15"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D118" s="30">
-        <v>1</v>
-      </c>
-      <c r="E118" s="29">
+      <c r="B124" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="30">
+        <v>1</v>
+      </c>
+      <c r="D124" s="29">
         <v>5</v>
       </c>
-      <c r="F118" s="27"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="15"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="11">
-        <v>116</v>
-      </c>
-      <c r="B119" s="11" t="s">
+      <c r="E124" s="27"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="15"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D119" s="30">
+      <c r="B125" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="30">
         <v>2</v>
       </c>
-      <c r="E119" s="30">
+      <c r="D125" s="30">
         <v>10</v>
       </c>
-      <c r="F119" s="27"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="15"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="11">
-        <v>117</v>
-      </c>
-      <c r="B120" s="11" t="s">
+      <c r="E125" s="27"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="15"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D120" s="30">
+      <c r="B126" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="30">
         <v>3</v>
       </c>
-      <c r="E120" s="29">
+      <c r="D126" s="29">
         <v>15</v>
       </c>
-      <c r="F120" s="27"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="15"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="11">
-        <v>118</v>
-      </c>
-      <c r="B121" s="11" t="s">
+      <c r="E126" s="27"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="15"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D121" s="30">
+      <c r="B127" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" s="30">
         <v>4</v>
       </c>
-      <c r="E121" s="29">
+      <c r="D127" s="29">
         <v>20</v>
       </c>
-      <c r="F121" s="27"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="15"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="11">
-        <v>119</v>
-      </c>
-      <c r="B122" s="11" t="s">
+      <c r="E127" s="27"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="15"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D122" s="30">
+      <c r="B128" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C128" s="30">
         <v>5</v>
       </c>
-      <c r="E122" s="29">
+      <c r="D128" s="29">
         <v>25</v>
       </c>
-      <c r="F122" s="27"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="15"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="11">
-        <v>120</v>
-      </c>
-      <c r="B123" s="11" t="s">
+      <c r="E128" s="27"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="15"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D123" s="30">
+      <c r="B129" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C129" s="30">
         <v>10</v>
       </c>
-      <c r="E123" s="29">
+      <c r="D129" s="29">
         <v>30</v>
       </c>
-      <c r="F123" s="27"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="11"/>
-      <c r="I123" s="15"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="11">
-        <v>121</v>
-      </c>
-      <c r="B124" s="11" t="s">
+      <c r="E129" s="27"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="15"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D124" s="30">
-        <v>1</v>
-      </c>
-      <c r="E124" s="29">
-        <v>5</v>
-      </c>
-      <c r="F124" s="27"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="15"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="11">
-        <v>122</v>
-      </c>
-      <c r="B125" s="11" t="s">
+      <c r="B130" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C130" s="30">
+        <v>10</v>
+      </c>
+      <c r="D130" s="29">
+        <v>50</v>
+      </c>
+      <c r="E130" s="27"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="15"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D125" s="30">
-        <v>2</v>
-      </c>
-      <c r="E125" s="30">
+      <c r="B131" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C131" s="30">
+        <v>20</v>
+      </c>
+      <c r="D131" s="29">
+        <v>50</v>
+      </c>
+      <c r="E131" s="27"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="15"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="30">
+        <v>30</v>
+      </c>
+      <c r="D132" s="29">
+        <v>50</v>
+      </c>
+      <c r="E132" s="27"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="15"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C133" s="30">
+        <v>40</v>
+      </c>
+      <c r="D133" s="29">
+        <v>80</v>
+      </c>
+      <c r="E133" s="27"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="15"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="30">
+        <v>50</v>
+      </c>
+      <c r="D134" s="29">
+        <v>100</v>
+      </c>
+      <c r="E134" s="27"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="15"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C135" s="30">
+        <v>100</v>
+      </c>
+      <c r="D135" s="29">
+        <v>200</v>
+      </c>
+      <c r="E135" s="27"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="15"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C136" s="30">
         <v>10</v>
       </c>
-      <c r="F125" s="27"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="15"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="11">
-        <v>123</v>
-      </c>
-      <c r="B126" s="11" t="s">
+      <c r="D136" s="29">
+        <v>50</v>
+      </c>
+      <c r="E136" s="27"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="15"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C137" s="30">
+        <v>20</v>
+      </c>
+      <c r="D137" s="29">
+        <v>50</v>
+      </c>
+      <c r="E137" s="27"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="15"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D126" s="30">
-        <v>3</v>
-      </c>
-      <c r="E126" s="29">
-        <v>15</v>
-      </c>
-      <c r="F126" s="27"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="15"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="11">
-        <v>124</v>
-      </c>
-      <c r="B127" s="11" t="s">
+      <c r="B138" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="30">
+        <v>30</v>
+      </c>
+      <c r="D138" s="29">
+        <v>50</v>
+      </c>
+      <c r="E138" s="27"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="15"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D127" s="30">
-        <v>4</v>
-      </c>
-      <c r="E127" s="29">
+      <c r="B139" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="30">
+        <v>40</v>
+      </c>
+      <c r="D139" s="29">
+        <v>80</v>
+      </c>
+      <c r="E139" s="27"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="30">
+        <v>50</v>
+      </c>
+      <c r="D140" s="29">
+        <v>100</v>
+      </c>
+      <c r="E140" s="27"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" s="30">
+        <v>100</v>
+      </c>
+      <c r="D141" s="29">
+        <v>200</v>
+      </c>
+      <c r="E141" s="27"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="15"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="30">
+        <v>10</v>
+      </c>
+      <c r="D142" s="29">
+        <v>50</v>
+      </c>
+      <c r="E142" s="27"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C143" s="30">
         <v>20</v>
       </c>
-      <c r="F127" s="27"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="15"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="11">
-        <v>125</v>
-      </c>
-      <c r="B128" s="11" t="s">
+      <c r="D143" s="29">
+        <v>50</v>
+      </c>
+      <c r="E143" s="27"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="15"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C144" s="30">
+        <v>30</v>
+      </c>
+      <c r="D144" s="29">
+        <v>50</v>
+      </c>
+      <c r="E144" s="27"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="15"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C145" s="30">
+        <v>40</v>
+      </c>
+      <c r="D145" s="29">
+        <v>80</v>
+      </c>
+      <c r="E145" s="27"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="15"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D128" s="30">
-        <v>5</v>
-      </c>
-      <c r="E128" s="29">
-        <v>25</v>
-      </c>
-      <c r="F128" s="27"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="11"/>
-      <c r="I128" s="15"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="11">
-        <v>126</v>
-      </c>
-      <c r="B129" s="11" t="s">
+      <c r="B146" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" s="30">
+        <v>50</v>
+      </c>
+      <c r="D146" s="29">
+        <v>100</v>
+      </c>
+      <c r="E146" s="27"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="15"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D129" s="30">
-        <v>10</v>
-      </c>
-      <c r="E129" s="29">
-        <v>30</v>
-      </c>
-      <c r="F129" s="27"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="15"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="11">
-        <v>127</v>
-      </c>
-      <c r="B130" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D130" s="30">
-        <v>10</v>
-      </c>
-      <c r="E130" s="29">
-        <v>50</v>
-      </c>
-      <c r="F130" s="27"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="15"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="11">
-        <v>128</v>
-      </c>
-      <c r="B131" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D131" s="30">
-        <v>20</v>
-      </c>
-      <c r="E131" s="29">
-        <v>50</v>
-      </c>
-      <c r="F131" s="27"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="15"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="11">
-        <v>129</v>
-      </c>
-      <c r="B132" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D132" s="30">
-        <v>30</v>
-      </c>
-      <c r="E132" s="29">
-        <v>50</v>
-      </c>
-      <c r="F132" s="27"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="15"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="11">
-        <v>130</v>
-      </c>
-      <c r="B133" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D133" s="30">
-        <v>40</v>
-      </c>
-      <c r="E133" s="29">
-        <v>80</v>
-      </c>
-      <c r="F133" s="27"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="15"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="11">
-        <v>131</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D134" s="30">
-        <v>50</v>
-      </c>
-      <c r="E134" s="29">
+      <c r="B147" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C147" s="30">
         <v>100</v>
       </c>
-      <c r="F134" s="27"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="15"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="11">
-        <v>132</v>
-      </c>
-      <c r="B135" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="D135" s="30">
-        <v>100</v>
-      </c>
-      <c r="E135" s="29">
+      <c r="D147" s="29">
         <v>200</v>
       </c>
-      <c r="F135" s="27"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="15"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="11">
-        <v>133</v>
-      </c>
-      <c r="B136" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D136" s="30">
-        <v>10</v>
-      </c>
-      <c r="E136" s="29">
-        <v>50</v>
-      </c>
-      <c r="F136" s="27"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="15"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="11">
-        <v>134</v>
-      </c>
-      <c r="B137" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D137" s="30">
-        <v>20</v>
-      </c>
-      <c r="E137" s="29">
-        <v>50</v>
-      </c>
-      <c r="F137" s="27"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="15"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="11">
-        <v>135</v>
-      </c>
-      <c r="B138" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D138" s="30">
-        <v>30</v>
-      </c>
-      <c r="E138" s="29">
-        <v>50</v>
-      </c>
-      <c r="F138" s="27"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="15"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="11">
-        <v>136</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D139" s="30">
-        <v>40</v>
-      </c>
-      <c r="E139" s="29">
-        <v>80</v>
-      </c>
-      <c r="F139" s="27"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="15"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="11">
-        <v>137</v>
-      </c>
-      <c r="B140" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D140" s="30">
-        <v>50</v>
-      </c>
-      <c r="E140" s="29">
-        <v>100</v>
-      </c>
-      <c r="F140" s="27"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="15"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="11">
-        <v>138</v>
-      </c>
-      <c r="B141" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D141" s="30">
-        <v>100</v>
-      </c>
-      <c r="E141" s="29">
-        <v>200</v>
-      </c>
-      <c r="F141" s="27"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="15"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="11">
-        <v>139</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D142" s="30">
-        <v>10</v>
-      </c>
-      <c r="E142" s="29">
-        <v>50</v>
-      </c>
-      <c r="F142" s="27"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="15"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="11">
-        <v>140</v>
-      </c>
-      <c r="B143" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D143" s="30">
-        <v>20</v>
-      </c>
-      <c r="E143" s="29">
-        <v>50</v>
-      </c>
-      <c r="F143" s="27"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="15"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="11">
-        <v>141</v>
-      </c>
-      <c r="B144" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D144" s="30">
-        <v>30</v>
-      </c>
-      <c r="E144" s="29">
-        <v>50</v>
-      </c>
-      <c r="F144" s="27"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
-      <c r="I144" s="15"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="11">
-        <v>142</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D145" s="30">
-        <v>40</v>
-      </c>
-      <c r="E145" s="29">
-        <v>80</v>
-      </c>
-      <c r="F145" s="27"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="15"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="11">
-        <v>143</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D146" s="30">
-        <v>50</v>
-      </c>
-      <c r="E146" s="29">
-        <v>100</v>
-      </c>
-      <c r="F146" s="27"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="15"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="11">
-        <v>144</v>
-      </c>
-      <c r="B147" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D147" s="30">
-        <v>100</v>
-      </c>
-      <c r="E147" s="29">
-        <v>200</v>
-      </c>
-      <c r="F147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="11"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="15"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="15"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B148" s="15"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="28"/>
+      <c r="E148" s="28"/>
+      <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/excel/Item.xlsx
+++ b/excel/Item.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\works\ItemGenerator\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83870B0E-D3FD-4303-829F-AFF87C9FBC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B7FF08-FC5D-4E26-A6FF-0617F5CAAF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25995" windowHeight="20985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="14865" windowWidth="29010" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enum" sheetId="3" r:id="rId1"/>
     <sheet name="Item" sheetId="7" r:id="rId2"/>
-    <sheet name="ItemDrop" sheetId="22" r:id="rId3"/>
-    <sheet name="ItemDropGrade" sheetId="23" r:id="rId4"/>
+    <sheet name="ItemSlot" sheetId="24" r:id="rId3"/>
+    <sheet name="ItemGrade" sheetId="23" r:id="rId4"/>
     <sheet name="!ItemOption" sheetId="21" r:id="rId5"/>
     <sheet name="ItemPotion" sheetId="13" r:id="rId6"/>
     <sheet name="ItemWeapon" sheetId="10" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="255">
   <si>
     <t>Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1046,6 +1046,10 @@
   </si>
   <si>
     <t>int?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1177,38 +1181,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1491,55 +1484,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I13:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="3"/>
-    <col min="5" max="5" width="12.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="3"/>
-    <col min="13" max="13" width="11.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" style="3"/>
-    <col min="17" max="17" width="20.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="20.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1550,16 +1543,16 @@
       <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1570,16 +1563,16 @@
       <c r="B3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1590,16 +1583,16 @@
       <c r="B4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1610,13 +1603,13 @@
       <c r="B5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1627,15 +1620,15 @@
       <c r="B6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1644,23 +1637,22 @@
       <c r="B7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="18"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1669,20 +1661,19 @@
       <c r="B8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="18"/>
+      <c r="R8" s="8"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1691,20 +1682,19 @@
       <c r="B9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="18"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1713,292 +1703,279 @@
       <c r="B10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="18"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="18"/>
+      <c r="R12" s="8"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="18"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="18"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="R14" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="18"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="18"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="18"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E31" s="16"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2031,7 +2008,7 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2056,35 +2033,35 @@
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>218</v>
       </c>
@@ -2100,7 +2077,7 @@
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2133,9 +2110,8 @@
       <c r="P2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
@@ -2184,1213 +2160,1211 @@
       <c r="P3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9">
-        <v>1</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4"/>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="9">
-        <v>1</v>
-      </c>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>3</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="9">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>1</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I8" s="9">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>3</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>150</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="9">
-        <v>1</v>
-      </c>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>100</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="9">
-        <v>1</v>
-      </c>
-      <c r="J11" s="9">
-        <v>1</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="9">
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
         <v>3</v>
       </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="9">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>50</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9">
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="9">
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>50</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
         <v>3</v>
       </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="9">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
-        <v>0</v>
-      </c>
-      <c r="N14" s="9">
-        <v>0</v>
-      </c>
-      <c r="O14" s="9">
-        <v>0</v>
-      </c>
-      <c r="P14" s="9">
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="4">
         <v>70</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="9">
-        <v>1</v>
-      </c>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
         <v>15</v>
       </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
-      </c>
-      <c r="N15" s="9">
-        <v>0</v>
-      </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="9">
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="4">
         <v>110</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="J16" s="9">
-        <v>1</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="4">
         <v>3</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I17" s="9">
-        <v>1</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
-        <v>0</v>
-      </c>
-      <c r="N17" s="9">
-        <v>0</v>
-      </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="9">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>150</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I18" s="9">
-        <v>1</v>
-      </c>
-      <c r="J18" s="9">
-        <v>1</v>
-      </c>
-      <c r="K18" s="9">
-        <v>0</v>
-      </c>
-      <c r="L18" s="9">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-      <c r="N18" s="9">
-        <v>0</v>
-      </c>
-      <c r="O18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="4">
         <v>70</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I19" s="9">
-        <v>1</v>
-      </c>
-      <c r="J19" s="9">
-        <v>1</v>
-      </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-      <c r="N19" s="9">
-        <v>0</v>
-      </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="9">
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="4">
         <v>120</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="J20" s="9">
-        <v>1</v>
-      </c>
-      <c r="K20" s="9">
-        <v>0</v>
-      </c>
-      <c r="L20" s="9">
-        <v>0</v>
-      </c>
-      <c r="M20" s="9">
-        <v>0</v>
-      </c>
-      <c r="N20" s="9">
-        <v>0</v>
-      </c>
-      <c r="O20" s="9">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9">
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="4">
         <v>50</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="I21" s="9">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="9">
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="4">
         <v>25</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="I22" s="9">
-        <v>1</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9">
-        <v>0</v>
-      </c>
-      <c r="L22" s="9">
-        <v>0</v>
-      </c>
-      <c r="M22" s="9">
-        <v>0</v>
-      </c>
-      <c r="N22" s="9">
-        <v>0</v>
-      </c>
-      <c r="O22" s="9">
-        <v>0</v>
-      </c>
-      <c r="P22" s="9">
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="4">
         <v>200</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="9">
-        <v>1</v>
-      </c>
-      <c r="J23" s="9">
-        <v>1</v>
-      </c>
-      <c r="K23" s="9">
-        <v>0</v>
-      </c>
-      <c r="L23" s="9">
-        <v>0</v>
-      </c>
-      <c r="M23" s="9">
-        <v>0</v>
-      </c>
-      <c r="N23" s="9">
-        <v>0</v>
-      </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="9">
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="4">
         <v>5</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9">
-        <v>1</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="9">
-        <v>0</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
-      </c>
-      <c r="N24" s="9">
-        <v>0</v>
-      </c>
-      <c r="O24" s="9">
-        <v>0</v>
-      </c>
-      <c r="P24" s="9">
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="4">
         <v>25</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9">
-        <v>1</v>
-      </c>
-      <c r="K25" s="9">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <v>0</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
-      </c>
-      <c r="N25" s="9">
-        <v>0</v>
-      </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="9">
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="4">
         <v>350</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="9">
-        <v>1</v>
-      </c>
-      <c r="J26" s="9">
-        <v>1</v>
-      </c>
-      <c r="K26" s="9">
-        <v>0</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0</v>
-      </c>
-      <c r="M26" s="9">
-        <v>0</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0</v>
-      </c>
-      <c r="O26" s="9">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9">
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="4">
         <v>0.1</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="9">
-        <v>1</v>
-      </c>
-      <c r="J27" s="9">
-        <v>1</v>
-      </c>
-      <c r="K27" s="9">
-        <v>0</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0</v>
-      </c>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-      <c r="N27" s="9">
-        <v>0</v>
-      </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="9">
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="4">
         <v>0.1</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I28" s="9">
-        <v>1</v>
-      </c>
-      <c r="J28" s="9">
-        <v>1</v>
-      </c>
-      <c r="K28" s="9">
-        <v>0</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0</v>
-      </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-      <c r="N28" s="9">
-        <v>0</v>
-      </c>
-      <c r="O28" s="9">
-        <v>0</v>
-      </c>
-      <c r="P28" s="9">
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3402,119 +3376,148 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06272B34-56FC-4AA7-BD57-F15946B76FA4}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BB4E8D-6333-47AB-BF28-9995BF97ECD1}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12">
+    </row>
+    <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9">
-        <f>SUM(C4:C8)</f>
-        <v>100</v>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3525,10 +3528,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D8C3EE5-174A-47D8-8B20-F93A364BA9DE}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3536,52 +3542,52 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
@@ -3605,127 +3611,127 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>80</v>
       </c>
-      <c r="D4" s="24">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24">
-        <v>0</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="14" t="s">
         <v>158</v>
       </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="24">
+      <c r="D5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14">
         <v>2</v>
       </c>
-      <c r="F5" s="24" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="6">
         <v>4</v>
       </c>
-      <c r="D6" s="12">
-        <v>2</v>
-      </c>
-      <c r="E6" s="24">
+      <c r="F7" s="14">
         <v>6</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="12">
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="12">
-        <v>4</v>
-      </c>
-      <c r="E7" s="24">
+    </row>
+    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="6">
         <v>6</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="F8" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>6</v>
-      </c>
-      <c r="E8" s="24">
-        <v>6</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="E9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="24">
+      <c r="F9" s="14">
         <v>10</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>204</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C10">
@@ -3743,7 +3749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C54022-A5B7-4BBB-B8FC-0BB8C06D78B5}">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3752,2688 +3758,2688 @@
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="16" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="29">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="19">
         <v>10</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="19">
         <v>15</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>3</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>20</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="15"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="19">
         <v>4</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="19">
         <v>25</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="19">
         <v>30</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>6</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="19">
         <v>35</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="29">
-        <v>1</v>
-      </c>
-      <c r="D10" s="29">
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
         <v>5</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="19">
         <v>6</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="19">
         <v>3</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="19">
         <v>7</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="19">
         <v>4</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="19">
         <v>8</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="19">
         <v>5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="19">
         <v>9</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="19">
         <v>6</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="19">
         <v>10</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="29">
-        <v>1</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
         <v>10</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="19">
         <v>2</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="19">
         <v>15</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="19">
         <v>3</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="19">
         <v>20</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="19">
         <v>4</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="19">
         <v>25</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="19">
         <v>5</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="19">
         <v>30</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="19">
         <v>6</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="19">
         <v>35</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="29">
-        <v>1</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19">
         <v>5</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="19">
         <v>2</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="19">
         <v>6</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="19">
         <v>3</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="19">
         <v>7</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="19">
         <v>4</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="19">
         <v>8</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="15"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="19">
         <v>5</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="19">
         <v>9</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="15"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="19">
         <v>6</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="19">
         <v>10</v>
       </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="15"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="29">
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
         <v>10</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="15"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="19">
         <v>2</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="19">
         <v>15</v>
       </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="15"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="19">
         <v>3</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="19">
         <v>20</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="15"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="19">
         <v>4</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="19">
         <v>25</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="15"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="19">
         <v>5</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="19">
         <v>30</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="15"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="19">
         <v>6</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="19">
         <v>35</v>
       </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="29">
-        <v>1</v>
-      </c>
-      <c r="D34" s="29">
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
         <v>5</v>
       </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="15"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="19">
         <v>2</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="19">
         <v>6</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="15"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="19">
         <v>3</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="19">
         <v>7</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="15"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="19">
         <v>4</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="19">
         <v>8</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="15"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="19">
         <v>5</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="19">
         <v>9</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="15"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="19">
         <v>6</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="19">
         <v>10</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="15"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="29">
-        <v>1</v>
-      </c>
-      <c r="D40" s="29">
+      <c r="C40" s="19">
+        <v>1</v>
+      </c>
+      <c r="D40" s="19">
         <v>10</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="15"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="19">
         <v>2</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="19">
         <v>15</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="15"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="19">
         <v>3</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="19">
         <v>20</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="19">
         <v>4</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="19">
         <v>25</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="15"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="19">
         <v>5</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="19">
         <v>30</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="15"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="19">
         <v>6</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="19">
         <v>35</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="15"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="29">
-        <v>1</v>
-      </c>
-      <c r="D46" s="29">
+      <c r="C46" s="19">
+        <v>1</v>
+      </c>
+      <c r="D46" s="19">
         <v>5</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="15"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="19">
         <v>2</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="19">
         <v>6</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="15"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="19">
         <v>3</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="19">
         <v>7</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="15"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="19">
         <v>4</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="19">
         <v>8</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="15"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="19">
         <v>5</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="19">
         <v>9</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="15"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="19">
         <v>6</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="19">
         <v>10</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="15"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="19">
         <v>5</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="19">
         <v>5</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="15"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="19">
         <v>10</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="19">
         <v>10</v>
       </c>
-      <c r="E53" s="27"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="15"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="19">
         <v>13</v>
       </c>
-      <c r="D54" s="29">
+      <c r="D54" s="19">
         <v>13</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="15"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="19">
         <v>16</v>
       </c>
-      <c r="D55" s="29">
+      <c r="D55" s="19">
         <v>16</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="19">
         <v>20</v>
       </c>
-      <c r="D56" s="29">
+      <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="15"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="19">
         <v>25</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="19">
         <v>25</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="15"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="19">
         <v>-5</v>
       </c>
-      <c r="D58" s="29">
+      <c r="D58" s="19">
         <v>-5</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="15"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="19">
         <v>-10</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D59" s="19">
         <v>-10</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="15"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="19">
         <v>-13</v>
       </c>
-      <c r="D60" s="29">
+      <c r="D60" s="19">
         <v>-13</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="15"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="19">
         <v>-16</v>
       </c>
-      <c r="D61" s="29">
+      <c r="D61" s="19">
         <v>-16</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="15"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="29">
+      <c r="C62" s="19">
         <v>-20</v>
       </c>
-      <c r="D62" s="29">
+      <c r="D62" s="19">
         <v>-20</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="15"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="19">
         <v>-25</v>
       </c>
-      <c r="D63" s="29">
+      <c r="D63" s="19">
         <v>-25</v>
       </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="15"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="19">
         <v>-5</v>
       </c>
-      <c r="D64" s="29">
+      <c r="D64" s="19">
         <v>-5</v>
       </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="15"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="19">
         <v>-10</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="19">
         <v>-10</v>
       </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="15"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="29">
+      <c r="C66" s="19">
         <v>-13</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="19">
         <v>-13</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="15"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="29">
+      <c r="C67" s="19">
         <v>-16</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="19">
         <v>-16</v>
       </c>
-      <c r="E67" s="27"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="15"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="19">
         <v>-20</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="19">
         <v>-20</v>
       </c>
-      <c r="E68" s="27"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="15"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="19">
         <v>-25</v>
       </c>
-      <c r="D69" s="29">
+      <c r="D69" s="19">
         <v>-25</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="30">
-        <v>1</v>
-      </c>
-      <c r="D70" s="29">
+      <c r="C70" s="19">
+        <v>1</v>
+      </c>
+      <c r="D70" s="19">
         <v>15</v>
       </c>
-      <c r="E70" s="27"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="15"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C71" s="30">
+      <c r="C71" s="19">
         <v>3</v>
       </c>
-      <c r="D71" s="29">
+      <c r="D71" s="19">
         <v>15</v>
       </c>
-      <c r="E71" s="27"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="30">
+      <c r="C72" s="19">
         <v>5</v>
       </c>
-      <c r="D72" s="29">
+      <c r="D72" s="19">
         <v>15</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="15"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="19">
         <v>5</v>
       </c>
-      <c r="D73" s="29">
+      <c r="D73" s="19">
         <v>20</v>
       </c>
-      <c r="E73" s="27"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="15"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="19">
         <v>10</v>
       </c>
-      <c r="D74" s="29">
+      <c r="D74" s="19">
         <v>20</v>
       </c>
-      <c r="E74" s="27"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="15"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="19">
         <v>15</v>
       </c>
-      <c r="D75" s="29">
+      <c r="D75" s="19">
         <v>30</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="15"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C76" s="30">
-        <v>1</v>
-      </c>
-      <c r="D76" s="29">
+      <c r="C76" s="19">
+        <v>1</v>
+      </c>
+      <c r="D76" s="19">
         <v>15</v>
       </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="15"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C77" s="30">
+      <c r="C77" s="19">
         <v>3</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="19">
         <v>15</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="15"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="30">
+      <c r="C78" s="19">
         <v>5</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="19">
         <v>15</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="15"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C79" s="30">
+      <c r="C79" s="19">
         <v>5</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="19">
         <v>20</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="15"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="19">
         <v>10</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="19">
         <v>20</v>
       </c>
-      <c r="E80" s="27"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="15"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="19">
         <v>15</v>
       </c>
-      <c r="D81" s="29">
+      <c r="D81" s="19">
         <v>30</v>
       </c>
-      <c r="E81" s="27"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="15"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C82" s="30">
-        <v>1</v>
-      </c>
-      <c r="D82" s="29">
+      <c r="C82" s="19">
+        <v>1</v>
+      </c>
+      <c r="D82" s="19">
         <v>15</v>
       </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="15"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="19">
         <v>3</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="19">
         <v>15</v>
       </c>
-      <c r="E83" s="27"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C84" s="30">
+      <c r="C84" s="19">
         <v>5</v>
       </c>
-      <c r="D84" s="29">
+      <c r="D84" s="19">
         <v>15</v>
       </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="15"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="30">
+      <c r="C85" s="19">
         <v>5</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="19">
         <v>20</v>
       </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="15"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="19">
         <v>10</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="19">
         <v>20</v>
       </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="15"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="19">
         <v>15</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="19">
         <v>30</v>
       </c>
-      <c r="E87" s="27"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="15"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="30">
-        <v>1</v>
-      </c>
-      <c r="D88" s="29">
+      <c r="C88" s="19">
+        <v>1</v>
+      </c>
+      <c r="D88" s="19">
         <v>15</v>
       </c>
-      <c r="E88" s="27"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="15"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="19">
         <v>3</v>
       </c>
-      <c r="D89" s="29">
+      <c r="D89" s="19">
         <v>15</v>
       </c>
-      <c r="E89" s="27"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="15"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="19">
         <v>5</v>
       </c>
-      <c r="D90" s="29">
+      <c r="D90" s="19">
         <v>15</v>
       </c>
-      <c r="E90" s="27"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="15"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="19">
         <v>5</v>
       </c>
-      <c r="D91" s="29">
+      <c r="D91" s="19">
         <v>20</v>
       </c>
-      <c r="E91" s="27"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="15"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="19">
         <v>10</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="19">
         <v>20</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="15"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="19">
         <v>15</v>
       </c>
-      <c r="D93" s="29">
+      <c r="D93" s="19">
         <v>30</v>
       </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="15"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="30">
-        <v>1</v>
-      </c>
-      <c r="D94" s="29">
+      <c r="C94" s="19">
+        <v>1</v>
+      </c>
+      <c r="D94" s="19">
         <v>15</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="15"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="19">
         <v>3</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="19">
         <v>15</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="15"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="19">
         <v>5</v>
       </c>
-      <c r="D96" s="29">
+      <c r="D96" s="19">
         <v>15</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="15"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="19">
         <v>5</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="19">
         <v>20</v>
       </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="19">
         <v>10</v>
       </c>
-      <c r="D98" s="29">
+      <c r="D98" s="19">
         <v>20</v>
       </c>
-      <c r="E98" s="27"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="15"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="19">
         <v>15</v>
       </c>
-      <c r="D99" s="29">
+      <c r="D99" s="19">
         <v>30</v>
       </c>
-      <c r="E99" s="27"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="15"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C100" s="30">
-        <v>1</v>
-      </c>
-      <c r="D100" s="29">
+      <c r="C100" s="19">
+        <v>1</v>
+      </c>
+      <c r="D100" s="19">
         <v>15</v>
       </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="15"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="19">
         <v>3</v>
       </c>
-      <c r="D101" s="29">
+      <c r="D101" s="19">
         <v>15</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="15"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="19">
         <v>5</v>
       </c>
-      <c r="D102" s="29">
+      <c r="D102" s="19">
         <v>15</v>
       </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="15"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="19">
         <v>5</v>
       </c>
-      <c r="D103" s="29">
+      <c r="D103" s="19">
         <v>20</v>
       </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="15"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="19">
         <v>10</v>
       </c>
-      <c r="D104" s="29">
+      <c r="D104" s="19">
         <v>20</v>
       </c>
-      <c r="E104" s="27"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="15"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="19">
         <v>15</v>
       </c>
-      <c r="D105" s="29">
+      <c r="D105" s="19">
         <v>30</v>
       </c>
-      <c r="E105" s="27"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="15"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="19">
         <v>5</v>
       </c>
-      <c r="D106" s="29">
+      <c r="D106" s="19">
         <v>5</v>
       </c>
-      <c r="E106" s="27"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="15"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="29">
+      <c r="C107" s="19">
         <v>10</v>
       </c>
-      <c r="D107" s="29">
+      <c r="D107" s="19">
         <v>10</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="15"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
+      <c r="A108" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="19">
         <v>13</v>
       </c>
-      <c r="D108" s="29">
+      <c r="D108" s="19">
         <v>13</v>
       </c>
-      <c r="E108" s="27"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="15"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="19">
         <v>16</v>
       </c>
-      <c r="D109" s="29">
+      <c r="D109" s="19">
         <v>16</v>
       </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="15"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="29">
+      <c r="C110" s="19">
         <v>20</v>
       </c>
-      <c r="D110" s="29">
+      <c r="D110" s="19">
         <v>20</v>
       </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="15"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="29">
+      <c r="C111" s="19">
         <v>25</v>
       </c>
-      <c r="D111" s="29">
+      <c r="D111" s="19">
         <v>25</v>
       </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="30">
-        <v>1</v>
-      </c>
-      <c r="D112" s="29">
+      <c r="C112" s="19">
+        <v>1</v>
+      </c>
+      <c r="D112" s="19">
         <v>5</v>
       </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="15"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="19">
         <v>2</v>
       </c>
-      <c r="D113" s="30">
+      <c r="D113" s="19">
         <v>10</v>
       </c>
-      <c r="E113" s="27"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="15"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C114" s="30">
+      <c r="C114" s="19">
         <v>3</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="19">
         <v>15</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="15"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="19">
         <v>4</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="19">
         <v>20</v>
       </c>
-      <c r="E115" s="27"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="15"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="19">
         <v>5</v>
       </c>
-      <c r="D116" s="29">
+      <c r="D116" s="19">
         <v>25</v>
       </c>
-      <c r="E116" s="27"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="15"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="11" t="s">
+      <c r="A117" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="19">
         <v>10</v>
       </c>
-      <c r="D117" s="29">
+      <c r="D117" s="19">
         <v>30</v>
       </c>
-      <c r="E117" s="27"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="15"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="11" t="s">
+      <c r="A118" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C118" s="30">
-        <v>1</v>
-      </c>
-      <c r="D118" s="29">
+      <c r="C118" s="19">
+        <v>1</v>
+      </c>
+      <c r="D118" s="19">
         <v>5</v>
       </c>
-      <c r="E118" s="27"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="15"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="19">
         <v>2</v>
       </c>
-      <c r="D119" s="30">
+      <c r="D119" s="19">
         <v>10</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="15"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="11" t="s">
+      <c r="A120" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C120" s="30">
+      <c r="C120" s="19">
         <v>3</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D120" s="19">
         <v>15</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="15"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="11" t="s">
+      <c r="A121" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C121" s="30">
+      <c r="C121" s="19">
         <v>4</v>
       </c>
-      <c r="D121" s="29">
+      <c r="D121" s="19">
         <v>20</v>
       </c>
-      <c r="E121" s="27"/>
-      <c r="F121" s="11"/>
-      <c r="G121" s="11"/>
-      <c r="H121" s="15"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="11" t="s">
+      <c r="A122" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C122" s="30">
+      <c r="C122" s="19">
         <v>5</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D122" s="19">
         <v>25</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="15"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C123" s="30">
+      <c r="C123" s="19">
         <v>10</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="19">
         <v>30</v>
       </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="11"/>
-      <c r="G123" s="11"/>
-      <c r="H123" s="15"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="11" t="s">
+      <c r="A124" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C124" s="30">
-        <v>1</v>
-      </c>
-      <c r="D124" s="29">
+      <c r="C124" s="19">
+        <v>1</v>
+      </c>
+      <c r="D124" s="19">
         <v>5</v>
       </c>
-      <c r="E124" s="27"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="11"/>
-      <c r="H124" s="15"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C125" s="30">
+      <c r="C125" s="19">
         <v>2</v>
       </c>
-      <c r="D125" s="30">
+      <c r="D125" s="19">
         <v>10</v>
       </c>
-      <c r="E125" s="27"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="A126" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C126" s="30">
+      <c r="C126" s="19">
         <v>3</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D126" s="19">
         <v>15</v>
       </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="15"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="11" t="s">
+      <c r="A127" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C127" s="30">
+      <c r="C127" s="19">
         <v>4</v>
       </c>
-      <c r="D127" s="29">
+      <c r="D127" s="19">
         <v>20</v>
       </c>
-      <c r="E127" s="27"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="15"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C128" s="30">
+      <c r="C128" s="19">
         <v>5</v>
       </c>
-      <c r="D128" s="29">
+      <c r="D128" s="19">
         <v>25</v>
       </c>
-      <c r="E128" s="27"/>
-      <c r="F128" s="11"/>
-      <c r="G128" s="11"/>
-      <c r="H128" s="15"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
+      <c r="A129" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C129" s="30">
+      <c r="C129" s="19">
         <v>10</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="19">
         <v>30</v>
       </c>
-      <c r="E129" s="27"/>
-      <c r="F129" s="11"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="15"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C130" s="30">
+      <c r="C130" s="19">
         <v>10</v>
       </c>
-      <c r="D130" s="29">
+      <c r="D130" s="19">
         <v>50</v>
       </c>
-      <c r="E130" s="27"/>
-      <c r="F130" s="11"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="15"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C131" s="30">
+      <c r="C131" s="19">
         <v>20</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="19">
         <v>50</v>
       </c>
-      <c r="E131" s="27"/>
-      <c r="F131" s="11"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="15"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="11" t="s">
+      <c r="A132" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C132" s="30">
+      <c r="C132" s="19">
         <v>30</v>
       </c>
-      <c r="D132" s="29">
+      <c r="D132" s="19">
         <v>50</v>
       </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="11"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="15"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="11" t="s">
+      <c r="A133" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C133" s="30">
+      <c r="C133" s="19">
         <v>40</v>
       </c>
-      <c r="D133" s="29">
+      <c r="D133" s="19">
         <v>80</v>
       </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="11"/>
-      <c r="G133" s="11"/>
-      <c r="H133" s="15"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="11" t="s">
+      <c r="A134" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C134" s="30">
+      <c r="C134" s="19">
         <v>50</v>
       </c>
-      <c r="D134" s="29">
+      <c r="D134" s="19">
         <v>100</v>
       </c>
-      <c r="E134" s="27"/>
-      <c r="F134" s="11"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="15"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C135" s="30">
+      <c r="C135" s="19">
         <v>100</v>
       </c>
-      <c r="D135" s="29">
+      <c r="D135" s="19">
         <v>200</v>
       </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="11"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="15"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="11" t="s">
+      <c r="A136" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C136" s="30">
+      <c r="C136" s="19">
         <v>10</v>
       </c>
-      <c r="D136" s="29">
+      <c r="D136" s="19">
         <v>50</v>
       </c>
-      <c r="E136" s="27"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="15"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="11" t="s">
+      <c r="A137" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C137" s="30">
+      <c r="C137" s="19">
         <v>20</v>
       </c>
-      <c r="D137" s="29">
+      <c r="D137" s="19">
         <v>50</v>
       </c>
-      <c r="E137" s="27"/>
-      <c r="F137" s="11"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="15"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="11" t="s">
+      <c r="A138" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C138" s="30">
+      <c r="C138" s="19">
         <v>30</v>
       </c>
-      <c r="D138" s="29">
+      <c r="D138" s="19">
         <v>50</v>
       </c>
-      <c r="E138" s="27"/>
-      <c r="F138" s="11"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="15"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+      <c r="A139" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C139" s="30">
+      <c r="C139" s="19">
         <v>40</v>
       </c>
-      <c r="D139" s="29">
+      <c r="D139" s="19">
         <v>80</v>
       </c>
-      <c r="E139" s="27"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="11" t="s">
+      <c r="A140" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C140" s="30">
+      <c r="C140" s="19">
         <v>50</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D140" s="19">
         <v>100</v>
       </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="11"/>
-      <c r="G140" s="11"/>
-      <c r="H140" s="15"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="11" t="s">
+      <c r="A141" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="30">
+      <c r="C141" s="19">
         <v>100</v>
       </c>
-      <c r="D141" s="29">
+      <c r="D141" s="19">
         <v>200</v>
       </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="11"/>
-      <c r="G141" s="11"/>
-      <c r="H141" s="15"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
+      <c r="A142" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C142" s="30">
+      <c r="C142" s="19">
         <v>10</v>
       </c>
-      <c r="D142" s="29">
+      <c r="D142" s="19">
         <v>50</v>
       </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="15"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="11" t="s">
+      <c r="A143" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C143" s="30">
+      <c r="C143" s="19">
         <v>20</v>
       </c>
-      <c r="D143" s="29">
+      <c r="D143" s="19">
         <v>50</v>
       </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="15"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="11" t="s">
+      <c r="A144" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C144" s="30">
+      <c r="C144" s="19">
         <v>30</v>
       </c>
-      <c r="D144" s="29">
+      <c r="D144" s="19">
         <v>50</v>
       </c>
-      <c r="E144" s="27"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="15"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="11" t="s">
+      <c r="A145" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="30">
+      <c r="C145" s="19">
         <v>40</v>
       </c>
-      <c r="D145" s="29">
+      <c r="D145" s="19">
         <v>80</v>
       </c>
-      <c r="E145" s="27"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="15"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="11" t="s">
+      <c r="A146" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C146" s="30">
+      <c r="C146" s="19">
         <v>50</v>
       </c>
-      <c r="D146" s="29">
+      <c r="D146" s="19">
         <v>100</v>
       </c>
-      <c r="E146" s="27"/>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-      <c r="H146" s="15"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="11" t="s">
+      <c r="A147" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C147" s="30">
+      <c r="C147" s="19">
         <v>100</v>
       </c>
-      <c r="D147" s="29">
+      <c r="D147" s="19">
         <v>200</v>
       </c>
-      <c r="E147" s="27"/>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-      <c r="H147" s="15"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6459,36 +6465,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6503,85 +6509,85 @@
       <c r="D3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>30</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4"/>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>250</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>0</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>200</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6607,36 +6613,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6651,109 +6657,109 @@
       <c r="D3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="6">
         <v>1.2</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="11">
-        <v>1</v>
-      </c>
-      <c r="C5" s="23">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="13">
         <v>6</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="13">
         <v>12</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
         <v>24</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="6">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>16</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="6">
         <v>14</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>26</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="10" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6784,18 +6790,18 @@
       <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6804,71 +6810,71 @@
       <c r="B3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="4">
         <v>7</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="11" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6895,36 +6901,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6939,33 +6945,33 @@
       <c r="D3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="1"/>
@@ -6982,7 +6988,7 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>216</v>
       </c>
     </row>
